--- a/words/template.xlsx
+++ b/words/template.xlsx
@@ -16,10 +16,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,8 +362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/words/template.xlsx
+++ b/words/template.xlsx
@@ -362,13 +362,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C170" sqref="A1:C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="34.625" customWidth="1"/>
   </cols>
